--- a/ajustador_da_tabela_de_dados/001/entrada.xlsx
+++ b/ajustador_da_tabela_de_dados/001/entrada.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H35"/>
@@ -14687,148 +14687,5327 @@
       <c r="G378" t="n">
         <v>0</v>
       </c>
-      <c r="H378" t="inlineStr"/>
-    </row>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
+    </row>
+    <row r="379" ht="18.75" customHeight="1">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>BALDE DE CONCRETO 12L</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>COSINHA LIMPESA</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G379" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="380" ht="18.75" customHeight="1">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 20L COM 100 PCS (PRETO)</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>8</v>
+      </c>
+      <c r="G380" t="n">
+        <v>64</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="381" ht="18.75" customHeight="1">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 200L COM 100 PCS (TRANSPARENTE)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G381" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="382" ht="18.75" customHeight="1">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO COMUM</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>6</v>
+      </c>
+      <c r="G382" t="n">
+        <v>360</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="383" ht="18.75" customHeight="1">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>FLANELA</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G383" t="n">
+        <v>104</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="384" ht="18.75" customHeight="1">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>DETERGENTE 500ML</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G384" t="n">
+        <v>44</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="385" ht="18.75" customHeight="1">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>COPO DESCARTAVEL 200ML (CAIXA)</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1198.5</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="386" ht="18.75" customHeight="1">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>BOMBRIL</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G386" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>NF° 28758</t>
+        </is>
+      </c>
+    </row>
+    <row r="387" ht="18.75" customHeight="1">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ÁLCOOL 1L</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="G387" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="388" ht="18.75" customHeight="1">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 100L COM 100 PCS (TRANSPARENTE)</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="G388" t="n">
+        <v>348.8</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="389" ht="18.75" customHeight="1">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>SABONETE LIQUIDO 5L</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>23</v>
+      </c>
+      <c r="G389" t="n">
+        <v>23</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="390" ht="18.75" customHeight="1">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>SABÃO EM BARRA</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G390" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="391" ht="18.75" customHeight="1">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>PAPEL TOALHA - 1000 (BRANCO)</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1176</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="392" ht="18.75" customHeight="1">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO(ROLÃO)</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G392" t="n">
+        <v>230</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="393" ht="18.75" customHeight="1">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>PANO DE CHÃO ALVEJADO</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G393" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="394" ht="18.75" customHeight="1">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ÁLCOOL 5L</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G394" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NF° 3582</t>
+        </is>
+      </c>
+    </row>
+    <row r="395" ht="18.75" customHeight="1">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>PAPEL A4</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>19.604</v>
+      </c>
+      <c r="G395" t="n">
+        <v>2940.6</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NF° 27729</t>
+        </is>
+      </c>
+    </row>
+    <row r="396" ht="18.75" customHeight="1">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>CAIXA DE ARQUIVO MORTO</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>4.199</v>
+      </c>
+      <c r="G396" t="n">
+        <v>167.96</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>NF° 712585</t>
+        </is>
+      </c>
+    </row>
+    <row r="397" ht="18.75" customHeight="1">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>CAIXA DE ARQUIVO MORTO VERMELHA</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>4.199</v>
+      </c>
+      <c r="G397" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>NF° 712585</t>
+        </is>
+      </c>
+    </row>
+    <row r="398" ht="18.75" customHeight="1">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>CADERNO  A5 S/ARAME PEQUENO</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G398" t="n">
+        <v>159</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>NF° 712585</t>
+        </is>
+      </c>
+    </row>
+    <row r="399" ht="18.75" customHeight="1">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>CADERNO DE ARAME GRANDE</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="G399" t="n">
+        <v>308.48</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>NF° 712585</t>
+        </is>
+      </c>
+    </row>
+    <row r="400" ht="18.75" customHeight="1">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>FILME STRETCH 500X0.025</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>OPERACIONAL</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>13.6072933333</v>
+      </c>
+      <c r="G400" t="n">
+        <v>20410.94</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>NF° 15545</t>
+        </is>
+      </c>
+    </row>
+    <row r="401" ht="18.75" customHeight="1">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ETIQUETA AMRELA (100X50) CX</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G401" t="n">
+        <v>3154</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>NF° 057</t>
+        </is>
+      </c>
+    </row>
+    <row r="402" ht="18.75" customHeight="1">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ETIQUETA BRANCA(100X50) CX</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2926</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>NF° 057</t>
+        </is>
+      </c>
+    </row>
+    <row r="403" ht="18.75" customHeight="1">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>BRAÇADEIRA</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>TRADE/MARKENTING</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G403" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="404" ht="18.75" customHeight="1">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>BLOCO DE ANOTAÇÃO</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G404" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="405" ht="18.75" customHeight="1">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>CLIPES 6/0(CAIXA)</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G405" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="406" ht="18.75" customHeight="1">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ENVELOPE PLÁSTICO PARA DOCUMENTOS</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="G406" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="407" ht="18.75" customHeight="1">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>PASTA A4</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G407" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="408" ht="18.75" customHeight="1">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>PILHA AA</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>2.0333</v>
+      </c>
+      <c r="G408" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="409" ht="18.75" customHeight="1">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>PILHA AAA</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>2.0333</v>
+      </c>
+      <c r="G409" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="410" ht="18.75" customHeight="1">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>REGUA 30CM</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G410" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>NF° 716896</t>
+        </is>
+      </c>
+    </row>
+    <row r="411" ht="18.75" customHeight="1">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>CAMISA PROMOTOR NESTLE (N°2 / P )</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G411" t="n">
+        <v>837.2</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="412" ht="18.75" customHeight="1">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>CAMISA PROMOTOR NESTLE (N°3 / M )</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G412" t="n">
+        <v>897</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="413" ht="18.75" customHeight="1">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>CAMISA PROMOTOR NESTLE (N°4 / G )</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G413" t="n">
+        <v>897</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="414" ht="18.75" customHeight="1">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>CAMISA OPERACIONAL (N°4 / G)</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1497</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="415" ht="18.75" customHeight="1">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>JALECO PROMOTOR NESTLE (N°2 / P )</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1856.9</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="416" ht="18.75" customHeight="1">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>JALECO PROMOTOR NESTLE (N°3 / M )</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G416" t="n">
+        <v>1856.9</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="417" ht="18.75" customHeight="1">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>JALECO PROMOTOR NESTLE (N°4 / G )</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G417" t="n">
+        <v>1856.9</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="418" ht="18.75" customHeight="1">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>CAMISA VENDAS DISTRIBUIDORA (N°GG2)(FEMININA)</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>85</v>
+      </c>
+      <c r="G418" t="n">
+        <v>850</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>NF° 4456</t>
+        </is>
+      </c>
+    </row>
+    <row r="419" ht="18.75" customHeight="1">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>BOTINA N° 37(42165)</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>83</v>
+      </c>
+      <c r="G419" t="n">
+        <v>415</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="420" ht="18.75" customHeight="1">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>BOTINA N° 38(42165)</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>83</v>
+      </c>
+      <c r="G420" t="n">
+        <v>249</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="421" ht="18.75" customHeight="1">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>BOTINA N° 42(42165)</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>83</v>
+      </c>
+      <c r="G421" t="n">
+        <v>415</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="422" ht="18.75" customHeight="1">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>BOTINA N° 44(42165)</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>83</v>
+      </c>
+      <c r="G422" t="n">
+        <v>332</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="423" ht="18.75" customHeight="1">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>LUVA CUMPRIDA(CA 9567) M</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>10</v>
+      </c>
+      <c r="G423" t="n">
+        <v>80</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="424" ht="18.75" customHeight="1">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>LUVA CUMPRIDA(CA 9567) G</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>10</v>
+      </c>
+      <c r="G424" t="n">
+        <v>20</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="425" ht="18.75" customHeight="1">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES G</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G425" t="n">
+        <v>105</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="426" ht="18.75" customHeight="1">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES M</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G426" t="n">
+        <v>105</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="427" ht="18.75" customHeight="1">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>SAPATO PARA LIMPEZA N° 37 (CA 39848)</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>85</v>
+      </c>
+      <c r="G427" t="n">
+        <v>85</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="428" ht="18.75" customHeight="1">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>SAPATO PARA LIMPEZA N° 35 (CA 39848)</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>85</v>
+      </c>
+      <c r="G428" t="n">
+        <v>85</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="429" ht="18.75" customHeight="1">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES P</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G429" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="430" ht="18.75" customHeight="1">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>CREME PARA LUVA</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>8</v>
+      </c>
+      <c r="G430" t="n">
+        <v>8</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="431" ht="18.75" customHeight="1">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>BOTINA N° 43(42165)</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>83</v>
+      </c>
+      <c r="G431" t="n">
+        <v>332</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="432" ht="18.75" customHeight="1">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>BOTINA N° 45(42165)</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>83</v>
+      </c>
+      <c r="G432" t="n">
+        <v>166</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="433" ht="18.75" customHeight="1">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>BOTINA N° 41(42165)</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>83</v>
+      </c>
+      <c r="G433" t="n">
+        <v>83</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="434" ht="18.75" customHeight="1">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>BOTINA N° 40(42165)</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>83</v>
+      </c>
+      <c r="G434" t="n">
+        <v>83</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="435" ht="18.75" customHeight="1">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>CORDÃO DE CRACHAR 20MM PERSONALIZADO</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>5.31996</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1329.99</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NF° 16805</t>
+        </is>
+      </c>
+    </row>
+    <row r="436" ht="18.75" customHeight="1">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>CORDÃO DE CRACHAR 20MM PERSONALIZADO</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>5.31996</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1329.99</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>NF° 16805</t>
+        </is>
+      </c>
+    </row>
+    <row r="437" ht="18.75" customHeight="1">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>BRAÇADEIRA</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>TRADE/MARKENTING</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G437" t="n">
+        <v>359.7</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="438" ht="18.75" customHeight="1">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BORRIFADOR </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G438" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="439" ht="18.75" customHeight="1">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>CADERNO  A5 S/ARAME PEQUENO</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G439" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="440" ht="18.75" customHeight="1">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>CADERNO DE ARAME GRANDE</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G440" t="n">
+        <v>318.72</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="441" ht="18.75" customHeight="1">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>SUPORTE DE ACRÍLICO COM 3 ALTURAS</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="G441" t="n">
+        <v>140.97</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="442" ht="18.75" customHeight="1">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>ENVELOPE PLÁSTICO PARA DOCUMENTOS</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="G442" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="443" ht="18.75" customHeight="1">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>FLANELA</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G443" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="444" ht="18.75" customHeight="1">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>PASTA A4</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G444" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="445" ht="18.75" customHeight="1">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>PINCEL PILOTO PERMANENTE</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="G445" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="446" ht="18.75" customHeight="1">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>PINCEL PILOTO PERMANENTE</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="G446" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="447" ht="18.75" customHeight="1">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>PORTA OBJETOS</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="G447" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="448" ht="18.75" customHeight="1">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>SABONETE LIQUIDO 5L</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="G448" t="n">
+        <v>87.95999999999999</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="449" ht="18.75" customHeight="1">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>TESOURA</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G449" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NF° 728803</t>
+        </is>
+      </c>
+    </row>
+    <row r="450" ht="18.75" customHeight="1">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>PAPEL A4</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>27/12/2024</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>19.604</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2940.6</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NF° 27729</t>
+        </is>
+      </c>
+    </row>
+    <row r="451" ht="18.75" customHeight="1">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>PAPEL A4</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>05/02/2024</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>20.016</v>
+      </c>
+      <c r="G451" t="n">
+        <v>3002.4</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>NF° 31502</t>
+        </is>
+      </c>
+    </row>
+    <row r="452" ht="18.75" customHeight="1">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>FILME STRETCH 500X0.025</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>OPERACIONAL</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>1502.4</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="G452" t="n">
+        <v>21018.58</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>NF° 3452</t>
+        </is>
+      </c>
+    </row>
+    <row r="453" ht="18.75" customHeight="1">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>CAFÉ 500G</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>COZINHA/ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>28/01/2025</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>28.227</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1693.62</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NF° 370993</t>
+        </is>
+      </c>
+    </row>
+    <row r="454" ht="18.75" customHeight="1">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>AÇUCAR</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>COZINHA/ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>05/02/2025</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G454" t="n">
+        <v>341.64</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NF° 26248</t>
+        </is>
+      </c>
+    </row>
+    <row r="455" ht="18.75" customHeight="1">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>BOTINA N° 37(42165)</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>83</v>
+      </c>
+      <c r="G455" t="n">
+        <v>415</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="456" ht="18.75" customHeight="1">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>BOTINA N° 38(42165)</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>83</v>
+      </c>
+      <c r="G456" t="n">
+        <v>249</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="457" ht="18.75" customHeight="1">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>BOTINA N° 42(42165)</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>83</v>
+      </c>
+      <c r="G457" t="n">
+        <v>415</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="458" ht="18.75" customHeight="1">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>BOTINA N° 44(42165)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F458" t="n">
+        <v>83</v>
+      </c>
+      <c r="G458" t="n">
+        <v>332</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="459" ht="18.75" customHeight="1">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>LUVA CUMPRIDA(CA 9567) M</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>10</v>
+      </c>
+      <c r="G459" t="n">
+        <v>80</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="460" ht="18.75" customHeight="1">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>LUVA CUMPRIDA(CA 9567) G</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>10</v>
+      </c>
+      <c r="G460" t="n">
+        <v>20</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="461" ht="18.75" customHeight="1">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES G</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G461" t="n">
+        <v>105</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="462" ht="18.75" customHeight="1">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES M</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G462" t="n">
+        <v>105</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="463" ht="18.75" customHeight="1">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>SAPATO PARA LIMPEZA N° 37 (CA 39848)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>85</v>
+      </c>
+      <c r="G463" t="n">
+        <v>85</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="464" ht="18.75" customHeight="1">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>SAPATO PARA LIMPEZA N° 35 (CA 39848)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>85</v>
+      </c>
+      <c r="G464" t="n">
+        <v>85</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="465" ht="18.75" customHeight="1">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>LUVA SIMPLES P</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G465" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="466" ht="18.75" customHeight="1">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>CREME PARA LUVA</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>8</v>
+      </c>
+      <c r="G466" t="n">
+        <v>8</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="467" ht="18.75" customHeight="1">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>BOTINA N° 43(42165)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>83</v>
+      </c>
+      <c r="G467" t="n">
+        <v>332</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="468" ht="18.75" customHeight="1">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>BOTINA N° 45(42165)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>83</v>
+      </c>
+      <c r="G468" t="n">
+        <v>166</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NF° 263498</t>
+        </is>
+      </c>
+    </row>
+    <row r="469" ht="18.75" customHeight="1">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ESPONJA</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G469" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="470" ht="18.75" customHeight="1">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>BOMBRIL</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G470" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="471" ht="18.75" customHeight="1">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>COPO DESCARTAVEL 200ML (CAIXA)</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1057.5</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="472" ht="18.75" customHeight="1">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>FLANELA</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G472" t="n">
+        <v>104</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="473" ht="18.75" customHeight="1">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO COMUM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>6</v>
+      </c>
+      <c r="G473" t="n">
+        <v>360</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="474" ht="18.75" customHeight="1">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 200L COM 100 PCS (TRANSPARENTE)</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G474" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="475" ht="18.75" customHeight="1">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GUARDANAPO </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>COSINHA COMIDA</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G475" t="n">
+        <v>84</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="476" ht="18.75" customHeight="1">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>VASSOURA PIAÇAVA</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="G476" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="477" ht="18.75" customHeight="1">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 20L COM 100 PCS (PRETO)</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>8</v>
+      </c>
+      <c r="G477" t="n">
+        <v>64</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="478" ht="18.75" customHeight="1">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>SAPOLIO</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G478" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="479" ht="18.75" customHeight="1">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>SODA CAUSTICA</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>COSINHA COMIDA</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="G479" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>NF° 29002</t>
+        </is>
+      </c>
+    </row>
+    <row r="480" ht="18.75" customHeight="1">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>SABÃO EM BARRA</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G480" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="481" ht="18.75" customHeight="1">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>SABONETE LIQUIDO 5L</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>23</v>
+      </c>
+      <c r="G481" t="n">
+        <v>23</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="482" ht="18.75" customHeight="1">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 100L COM 100 PCS (TRANSPARENTE)</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="G482" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="483" ht="18.75" customHeight="1">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO - 40L COM 100 PCS (TRANSPARENTE)</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G483" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="484" ht="18.75" customHeight="1">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ÁLCOOL 1L</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G484" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="485" ht="18.75" customHeight="1">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO(ROLÃO)</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="G485" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="486" ht="18.75" customHeight="1">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>PANO DE PRATO</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G486" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="487" ht="18.75" customHeight="1">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>PANO DE CHÃO ALVEJADO</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G487" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="488" ht="18.75" customHeight="1">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>PAPEL TOALHA - 1000 (BRANCO)</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1228.5</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="489" ht="18.75" customHeight="1">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PÁ DE LIXO </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>10</v>
+      </c>
+      <c r="G489" t="n">
+        <v>20</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="490" ht="18.75" customHeight="1">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>DETERGENTE 500ML</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G490" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="491" ht="18.75" customHeight="1">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>BOM AR</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G491" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="492" ht="18.75" customHeight="1">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>ÁLCOOL 1L</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>COZINHA</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G492" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NF° 3793</t>
+        </is>
+      </c>
+    </row>
+    <row r="493" ht="18.75" customHeight="1">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>CALCULADORA COM CORDA</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="G493" t="n">
+        <v>312.75</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NF° 3053</t>
+        </is>
+      </c>
+    </row>
+    <row r="494" ht="18.75" customHeight="1">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 36)</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>49</v>
+      </c>
+      <c r="G494" t="n">
+        <v>735</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="495" ht="18.75" customHeight="1">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 38)</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>49</v>
+      </c>
+      <c r="G495" t="n">
+        <v>735</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="496" ht="18.75" customHeight="1">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 40)</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>49</v>
+      </c>
+      <c r="G496" t="n">
+        <v>735</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="497" ht="18.75" customHeight="1">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 42)</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>49</v>
+      </c>
+      <c r="G497" t="n">
+        <v>735</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="498" ht="18.75" customHeight="1">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 44)</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>49</v>
+      </c>
+      <c r="G498" t="n">
+        <v>735</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="499" ht="18.75" customHeight="1">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 46)</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>49</v>
+      </c>
+      <c r="G499" t="n">
+        <v>735</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="500" ht="18.75" customHeight="1">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 48)</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>49</v>
+      </c>
+      <c r="G500" t="n">
+        <v>735</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="501" ht="18.75" customHeight="1">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 52)</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>49</v>
+      </c>
+      <c r="G501" t="n">
+        <v>490</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="502" ht="18.75" customHeight="1">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 56)</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>49</v>
+      </c>
+      <c r="G502" t="n">
+        <v>490</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="503" ht="18.75" customHeight="1">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 52)</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>49</v>
+      </c>
+      <c r="G503" t="n">
+        <v>245</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="504" ht="18.75" customHeight="1">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 56)</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>49</v>
+      </c>
+      <c r="G504" t="n">
+        <v>245</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>NF° 4453</t>
+        </is>
+      </c>
+    </row>
+    <row r="505" ht="18.75" customHeight="1">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>FILME STRETCH 500X0.025</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>OPERACIONAL</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G505" t="n">
+        <v>537</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>NF° 24142</t>
+        </is>
+      </c>
+    </row>
+    <row r="506" ht="18.75" customHeight="1">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>FILME STRETCH 500X0.025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>OPERACIONAL</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2937.25</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>NF° 9794</t>
+        </is>
+      </c>
+    </row>
+    <row r="507" ht="18.75" customHeight="1">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>HANG TAB</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>TRADE/MARKENTING</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="G507" t="n">
+        <v>1051.5</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>NF° 14690</t>
+        </is>
+      </c>
+    </row>
+    <row r="508" ht="18.75" customHeight="1">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>BOTINA N° 35(42165)</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>83</v>
+      </c>
+      <c r="G508" t="n">
+        <v>166</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="509" ht="18.75" customHeight="1">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>BOTINA N° 36(42165)</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>83</v>
+      </c>
+      <c r="G509" t="n">
+        <v>166</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="510" ht="18.75" customHeight="1">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>BOTINA N° 37(42165)</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>83</v>
+      </c>
+      <c r="G510" t="n">
+        <v>166</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="511" ht="18.75" customHeight="1">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>BOTINA N° 38(42165)</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>83</v>
+      </c>
+      <c r="G511" t="n">
+        <v>415</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="512" ht="18.75" customHeight="1">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>BOTINA N° 39(42165)</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>83</v>
+      </c>
+      <c r="G512" t="n">
+        <v>415</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="513" ht="18.75" customHeight="1">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>BOTINA N° 40(42165)</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>83</v>
+      </c>
+      <c r="G513" t="n">
+        <v>415</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="514" ht="18.75" customHeight="1">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>BOTINA N° 42(42165)</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>83</v>
+      </c>
+      <c r="G514" t="n">
+        <v>415</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="515" ht="18.75" customHeight="1">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>BOTINA N° 43(42165)</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>83</v>
+      </c>
+      <c r="G515" t="n">
+        <v>249</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="516" ht="18.75" customHeight="1">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>BOTINA N° 44(42165)</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEGURANÇA </t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>83</v>
+      </c>
+      <c r="G516" t="n">
+        <v>249</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="517" ht="18.75" customHeight="1">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>BOTINA N° 42 (CA 43938) (SUPERVISOR OPERACIONAL)</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>SEGURANÇA</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>110</v>
+      </c>
+      <c r="G517" t="n">
+        <v>110</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>NF° 265684</t>
+        </is>
+      </c>
+    </row>
+    <row r="518" ht="18.75" customHeight="1">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA(TRASPARENTE) CX</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="G518" t="n">
+        <v>7505.82</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>NF° 36202</t>
+        </is>
+      </c>
+    </row>
     <row r="519" ht="18.75" customHeight="1"/>
     <row r="520" ht="18.75" customHeight="1"/>
     <row r="521" ht="18.75" customHeight="1"/>
